--- a/Gamecamp2Ex/仕様一覧/斬る_仕様.xlsx
+++ b/Gamecamp2Ex/仕様一覧/斬る_仕様.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="斬る" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>仕様概要</t>
     <rPh sb="0" eb="2">
@@ -93,16 +93,6 @@
     <t>：ダメージ計算式、フラグ管理、データの通信、セーブロード、タイマー管理など</t>
   </si>
   <si>
-    <t>・斜めにドラッグ＆ドロップをすると、発生</t>
-    <rPh sb="1" eb="2">
-      <t>ナナ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・プレイヤーが壁を排除するための基本手段</t>
     <rPh sb="7" eb="8">
       <t>カベ</t>
@@ -201,6 +191,62 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・発生不可パターン</t>
+    <rPh sb="1" eb="3">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ドラッグ＆ドロップをすると、発生</t>
+    <rPh sb="15" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・斬撃エフェクト</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・始点と終点の間に斬撃エフェクトを発生させる</t>
+    <rPh sb="1" eb="3">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウテン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ザッシュッ！」という感じのSE</t>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -209,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +312,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -307,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +379,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -347,13 +405,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -363,7 +421,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1272540" y="5013960"/>
+          <a:off x="1272540" y="5501640"/>
           <a:ext cx="2095500" cy="1691640"/>
           <a:chOff x="1912620" y="4678680"/>
           <a:chExt cx="2095500" cy="1767840"/>
@@ -462,13 +520,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -513,13 +571,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -569,6 +627,635 @@
               </a:solidFill>
             </a:rPr>
             <a:t>当たり判定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5669280" y="5532120"/>
+          <a:ext cx="2095500" cy="1691640"/>
+          <a:chOff x="1912620" y="4678680"/>
+          <a:chExt cx="2095500" cy="1767840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1912620" y="4678680"/>
+            <a:ext cx="2095500" cy="1767840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2278380" y="4953000"/>
+            <a:ext cx="1341120" cy="1257300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5433060" y="4899660"/>
+          <a:ext cx="2590800" cy="1996440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1257300" y="7772400"/>
+          <a:ext cx="2095500" cy="1615440"/>
+          <a:chOff x="1912620" y="4678680"/>
+          <a:chExt cx="2095500" cy="1767840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1912620" y="4678680"/>
+            <a:ext cx="2095500" cy="1767840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2278380" y="4953000"/>
+            <a:ext cx="1341120" cy="1257300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1760220" y="7719060"/>
+          <a:ext cx="1059180" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4892040" y="7246620"/>
+          <a:ext cx="2613660" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5829300" y="8199120"/>
+          <a:ext cx="419100" cy="358140"/>
+          <a:chOff x="1912620" y="4678680"/>
+          <a:chExt cx="2095500" cy="1767840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1912620" y="4678680"/>
+            <a:ext cx="2095500" cy="1767840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2278380" y="4953000"/>
+            <a:ext cx="1341120" cy="1257300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968240" y="7330440"/>
+          <a:ext cx="2415540" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="線吹き出し 1 (枠付き) 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="7261860"/>
+          <a:ext cx="1127760" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37171"/>
+            <a:gd name="adj2" fmla="val -225"/>
+            <a:gd name="adj3" fmla="val 54084"/>
+            <a:gd name="adj4" fmla="val -64009"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲーム画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -854,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB43"/>
+  <dimension ref="A1:BB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -874,12 +1561,12 @@
     </row>
     <row r="3" spans="1:54">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="19.2">
@@ -1400,7 +2087,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1459,7 +2146,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1517,7 +2204,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1574,7 +2261,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1684,70 +2371,64 @@
     <row r="21" spans="1:54" ht="19.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
     </row>
     <row r="22" spans="1:54" ht="19.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1802,63 +2483,69 @@
     <row r="23" spans="1:54" ht="19.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
     </row>
     <row r="24" spans="1:54" ht="19.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1967,6 +2654,62 @@
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
     </row>
+    <row r="26" spans="1:54" ht="19.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+    </row>
     <row r="27" spans="1:54" ht="19.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
@@ -2023,62 +2766,6 @@
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
     </row>
-    <row r="28" spans="1:54" ht="19.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
-      <c r="AQ28" s="7"/>
-      <c r="AR28" s="7"/>
-      <c r="AS28" s="7"/>
-      <c r="AT28" s="7"/>
-      <c r="AU28" s="7"/>
-      <c r="AV28" s="7"/>
-      <c r="AW28" s="7"/>
-      <c r="AX28" s="7"/>
-      <c r="AY28" s="7"/>
-      <c r="AZ28" s="7"/>
-      <c r="BA28" s="7"/>
-      <c r="BB28" s="7"/>
-    </row>
     <row r="29" spans="1:54" ht="19.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
@@ -2191,351 +2878,479 @@
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
     </row>
-    <row r="38" spans="1:54" ht="19.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+    <row r="31" spans="1:54" ht="19.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
+    </row>
+    <row r="32" spans="1:54" ht="19.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+    </row>
+    <row r="34" spans="1:54" ht="14.4">
+      <c r="C34" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" ht="19.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="6"/>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="6"/>
-      <c r="AU38" s="6"/>
-      <c r="AV38" s="6"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="6"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="6"/>
-    </row>
-    <row r="39" spans="1:54" ht="19.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
-      <c r="AQ39" s="7"/>
-      <c r="AR39" s="7"/>
-      <c r="AS39" s="7"/>
-      <c r="AT39" s="7"/>
-      <c r="AU39" s="7"/>
-      <c r="AV39" s="7"/>
-      <c r="AW39" s="7"/>
-      <c r="AX39" s="7"/>
-      <c r="AY39" s="7"/>
-      <c r="AZ39" s="7"/>
-      <c r="BA39" s="7"/>
-      <c r="BB39" s="7"/>
-    </row>
-    <row r="40" spans="1:54" ht="19.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="7"/>
-      <c r="AO40" s="7"/>
-      <c r="AP40" s="7"/>
-      <c r="AQ40" s="7"/>
-      <c r="AR40" s="7"/>
-      <c r="AS40" s="7"/>
-      <c r="AT40" s="7"/>
-      <c r="AU40" s="7"/>
-      <c r="AV40" s="7"/>
-      <c r="AW40" s="7"/>
-      <c r="AX40" s="7"/>
-      <c r="AY40" s="7"/>
-      <c r="AZ40" s="7"/>
-      <c r="BA40" s="7"/>
-      <c r="BB40" s="7"/>
-    </row>
-    <row r="41" spans="1:54" ht="19.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
-      <c r="AJ41" s="7"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
-      <c r="AM41" s="7"/>
-      <c r="AN41" s="7"/>
-      <c r="AO41" s="7"/>
-      <c r="AP41" s="7"/>
-      <c r="AQ41" s="7"/>
-      <c r="AR41" s="7"/>
-      <c r="AS41" s="7"/>
-      <c r="AT41" s="7"/>
-      <c r="AU41" s="7"/>
-      <c r="AV41" s="7"/>
-      <c r="AW41" s="7"/>
-      <c r="AX41" s="7"/>
-      <c r="AY41" s="7"/>
-      <c r="AZ41" s="7"/>
-      <c r="BA41" s="7"/>
-      <c r="BB41" s="7"/>
-    </row>
-    <row r="42" spans="1:54" ht="19.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-      <c r="AJ42" s="7"/>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-      <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
-      <c r="AO42" s="7"/>
-      <c r="AP42" s="7"/>
-      <c r="AQ42" s="7"/>
-      <c r="AR42" s="7"/>
-      <c r="AS42" s="7"/>
-      <c r="AT42" s="7"/>
-      <c r="AU42" s="7"/>
-      <c r="AV42" s="7"/>
-      <c r="AW42" s="7"/>
-      <c r="AX42" s="7"/>
-      <c r="AY42" s="7"/>
-      <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
-      <c r="BB42" s="7"/>
-    </row>
-    <row r="43" spans="1:54" ht="19.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="6"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="6"/>
+      <c r="BB48" s="6"/>
+    </row>
+    <row r="49" spans="1:54" ht="19.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7"/>
+    </row>
+    <row r="50" spans="1:54" ht="19.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+    </row>
+    <row r="51" spans="1:54" ht="19.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="7"/>
+      <c r="AX51" s="7"/>
+      <c r="AY51" s="7"/>
+      <c r="AZ51" s="7"/>
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7"/>
+    </row>
+    <row r="52" spans="1:54" ht="19.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="7"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="7"/>
+    </row>
+    <row r="53" spans="1:54" ht="19.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
-      <c r="AM43" s="6"/>
-      <c r="AN43" s="6"/>
-      <c r="AO43" s="6"/>
-      <c r="AP43" s="6"/>
-      <c r="AQ43" s="6"/>
-      <c r="AR43" s="6"/>
-      <c r="AS43" s="6"/>
-      <c r="AT43" s="6"/>
-      <c r="AU43" s="6"/>
-      <c r="AV43" s="6"/>
-      <c r="AW43" s="6"/>
-      <c r="AX43" s="6"/>
-      <c r="AY43" s="6"/>
-      <c r="AZ43" s="6"/>
-      <c r="BA43" s="6"/>
-      <c r="BB43" s="6"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+    </row>
+    <row r="54" spans="1:54">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:54">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>